--- a/docs/data_prep/scenario_design/Scenario_InputTables.xlsx
+++ b/docs/data_prep/scenario_design/Scenario_InputTables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
   <si>
     <t>Table Name</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Scenario_BuildingComponent_Input_Labor.xlsx</t>
   </si>
   <si>
-    <t>Scenario_Construction_MandatoryRenwableHeating.xlsx</t>
-  </si>
-  <si>
     <t>Scenario_Construction_PVAdoptionRate.xlsx</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>Parameter_Building_SupplyTemperature.xlsx</t>
   </si>
   <si>
-    <t>should it be dependent on action type (i.e. conventional and serial?) --&gt; if we want to push for more serial renovation and the costs for serial renovation are higher, this might be the only lever to increase serial renovation</t>
-  </si>
-  <si>
     <t>75% (after 2025 for classes 1-4, 50% for classes 5-6, 25% for classes 7-8)</t>
   </si>
   <si>
@@ -262,6 +256,30 @@
   </si>
   <si>
     <t>is this relevant for living space as described in Category 5 (--&gt; increasing single-person households and thus,higher demand of living space)? and/or, should I increase Scenario_Building_UnitArea in parallel?</t>
+  </si>
+  <si>
+    <t>Scenario_Construction_MandatoryRenewableHeating.xlsx</t>
+  </si>
+  <si>
+    <t>should it be dependent on action type (i.e. conventional and serial?) --&gt; if we want to push for more serial renovation and the costs for serial renovation are higher, this might be the only lever to increase serial renovation + the master thesis student said that there are 15% additional subsidies for serial renovation anyway</t>
+  </si>
+  <si>
+    <t>for id_action = 1&amp;2</t>
+  </si>
+  <si>
+    <t>for id_action = 3</t>
+  </si>
+  <si>
+    <t>50% higher than conventional until 2025, gradually lowering to 30% higher after 2030</t>
+  </si>
+  <si>
+    <t>50% higher than conventional until 2025, gradually lowering to 40% higher after 2030</t>
+  </si>
+  <si>
+    <t>50% higher than conventional</t>
+  </si>
+  <si>
+    <t>made scenario-dependent, with code changes (19.08.2024)</t>
   </si>
 </sst>
 </file>
@@ -329,35 +347,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,16 +401,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>153681</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>79598</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>44945</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>84652</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>203695</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10569</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -405,8 +427,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="153681"/>
-          <a:ext cx="17932895" cy="7169971"/>
+          <a:off x="11364383" y="270098"/>
+          <a:ext cx="18059895" cy="7169971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -681,15 +703,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -697,518 +719,548 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="11" t="s">
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="G30" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="9" t="s">
+      <c r="F38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>52</v>
+      <c r="F39" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A21"/>
-    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A35:A37"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/data_prep/scenario_design/Scenario_InputTables.xlsx
+++ b/docs/data_prep/scenario_design/Scenario_InputTables.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25221DB-32EE-45F2-8D44-5268982058E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="4545"/>
+    <workbookView xWindow="38280" yWindow="-135" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
   <si>
     <t>Table Name</t>
   </si>
@@ -84,9 +96,6 @@
     <t>Already scenario-dependent</t>
   </si>
   <si>
-    <t>Scenario_Building_UnitArea.xlsx</t>
-  </si>
-  <si>
     <t>Scenario_BuildingComponent_Input_Labor.xlsx</t>
   </si>
   <si>
@@ -210,9 +219,6 @@
     <t>Scenario_UnitUser.xlsx</t>
   </si>
   <si>
-    <t>Scenario_UsefulEnergyDemandIndex_ApplianceElectricity.xlsx</t>
-  </si>
-  <si>
     <t>Scenario_BuildingComponent_Cost_Material.xlsx</t>
   </si>
   <si>
@@ -228,9 +234,6 @@
     <t>5 years later than 1 for everything (after 2025)</t>
   </si>
   <si>
-    <t>can we make sure serial renovation is not available since 1900 somehow?</t>
-  </si>
-  <si>
     <t>50% lower than conventional (id_building_action=2) after 2025</t>
   </si>
   <si>
@@ -249,21 +252,12 @@
     <t>fix typo in table name</t>
   </si>
   <si>
-    <t>is thisthe table to apply overall efficiency gains in tech.?</t>
-  </si>
-  <si>
     <t>not applicable</t>
   </si>
   <si>
-    <t>is this relevant for living space as described in Category 5 (--&gt; increasing single-person households and thus,higher demand of living space)? and/or, should I increase Scenario_Building_UnitArea in parallel?</t>
-  </si>
-  <si>
     <t>Scenario_Construction_MandatoryRenewableHeating.xlsx</t>
   </si>
   <si>
-    <t>should it be dependent on action type (i.e. conventional and serial?) --&gt; if we want to push for more serial renovation and the costs for serial renovation are higher, this might be the only lever to increase serial renovation + the master thesis student said that there are 15% additional subsidies for serial renovation anyway</t>
-  </si>
-  <si>
     <t>for id_action = 1&amp;2</t>
   </si>
   <si>
@@ -280,12 +274,51 @@
   </si>
   <si>
     <t>made scenario-dependent, with code changes (19.08.2024)</t>
+  </si>
+  <si>
+    <t>is this relevant for living space as described in Category 5 (--&gt; increasing single-person households and thus, higher demand of living space)? and/or, should I increase Scenario_Building_UnitArea in parallel?</t>
+  </si>
+  <si>
+    <t>check FLEX-Summary file from Songmin for plausible rates</t>
+  </si>
+  <si>
+    <t>same 1</t>
+  </si>
+  <si>
+    <t>medium efficiency increase</t>
+  </si>
+  <si>
+    <t>ambitious efficiency increase</t>
+  </si>
+  <si>
+    <t>also vary the non-electricity energy carriers demand by ambition level of scenario</t>
+  </si>
+  <si>
+    <t>increasing single-person households (1) and reducing type 2 and 5 at the same time.</t>
+  </si>
+  <si>
+    <t>make sure total population is consistent</t>
+  </si>
+  <si>
+    <t>increasing type 2 and 5, and reducing single-person households (1) at the same time.</t>
+  </si>
+  <si>
+    <t>check again if there is any data. if not, and if we still want to include conclusions about low-temp DH readiness, we could show our assumptions and say that there is no historic data, but these are our assumptions.</t>
+  </si>
+  <si>
+    <t>not considered for RokiG</t>
+  </si>
+  <si>
+    <t>it should be dependent on action type (i.e. conventional and serial) --&gt; if we want to push for more serial renovation and the costs for serial renovation are higher, this might be the only lever to increase serial renovation + the master thesis student said that there are 15% additional subsidies for serial renovation anyway</t>
+  </si>
+  <si>
+    <t>can we make sure serial renovation is not available since 1900 somehow? --&gt; yes, in code, historic renovation can happen only by conventional. only for future, serial renovation is an option. additionally, we can also make the availability table 0 for action_type=3 until 2024.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,7 +336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,6 +367,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -347,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,9 +415,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,7 +457,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -702,20 +751,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="78.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -723,24 +771,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F2" s="12"/>
     </row>
@@ -773,13 +821,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -803,13 +851,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="7"/>
     </row>
@@ -819,13 +867,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7"/>
     </row>
@@ -835,13 +883,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7"/>
     </row>
@@ -851,13 +899,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="7"/>
     </row>
@@ -867,13 +915,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="7"/>
     </row>
@@ -883,13 +931,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7"/>
     </row>
@@ -899,13 +947,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
       </c>
       <c r="F15" s="7"/>
     </row>
@@ -915,13 +963,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
       </c>
       <c r="F16" s="7"/>
     </row>
@@ -931,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -947,13 +995,13 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -963,13 +1011,13 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F19" s="7"/>
     </row>
@@ -979,16 +1027,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -997,124 +1045,124 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
         <v>59</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>60</v>
       </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>86</v>
+      <c r="A22" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>81</v>
+      <c r="F22" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="13"/>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>70</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
         <v>71</v>
       </c>
-      <c r="E24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" t="s">
-        <v>74</v>
-      </c>
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
         <v>40</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>41</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>42</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C28" s="6">
         <v>0.5</v>
@@ -1125,135 +1173,146 @@
       <c r="E28" s="6">
         <v>0.15</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="B29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>53</v>
+      <c r="B30" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" t="s">
-        <v>76</v>
+      <c r="B31" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+      <c r="C33" t="s">
         <v>45</v>
       </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" t="s">
-        <v>46</v>
-      </c>
       <c r="F34" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="F38" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="G32:G33"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A21"/>

--- a/docs/data_prep/scenario_design/Scenario_InputTables.xlsx
+++ b/docs/data_prep/scenario_design/Scenario_InputTables.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25221DB-32EE-45F2-8D44-5268982058E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-135" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-135" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
   <si>
     <t>Table Name</t>
   </si>
@@ -129,15 +128,6 @@
     <t>65% after 2025</t>
   </si>
   <si>
-    <t>no oil boilers allowed after 2025, no (natural) gas boilers allowed after 2035</t>
-  </si>
-  <si>
-    <t>no oil boilers allowed after 2030, no (natural) gas boilers allowed after 2040</t>
-  </si>
-  <si>
-    <t>no oil boilers allowed after 2035, no (natural) gas boilers allowed after 2045</t>
-  </si>
-  <si>
     <t>Scenario_HeatingTechnology_EfficiencyCoefficient.xlsx</t>
   </si>
   <si>
@@ -313,13 +303,25 @@
   </si>
   <si>
     <t>can we make sure serial renovation is not available since 1900 somehow? --&gt; yes, in code, historic renovation can happen only by conventional. only for future, serial renovation is an option. additionally, we can also make the availability table 0 for action_type=3 until 2024.</t>
+  </si>
+  <si>
+    <t>not fully effective for now as we don't have complicated combinations of fossil and renewable heating technologies. for now, we only have solar thermal and electric heater that decides the RE share and they are usually not very large to make the total share reach above 50%</t>
+  </si>
+  <si>
+    <t>no fossil boilers allowed after 2025</t>
+  </si>
+  <si>
+    <t>no fossil boilers allowed after 2035</t>
+  </si>
+  <si>
+    <t>no fossil boilers allowed after 2045</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +333,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -386,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -397,6 +406,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,11 +432,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,11 +762,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,20 +778,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="12" t="s">
-        <v>51</v>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
@@ -790,10 +801,10 @@
       <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -802,51 +813,51 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -862,7 +873,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -878,7 +889,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -894,7 +905,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
@@ -910,7 +921,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
@@ -926,55 +937,57 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -990,7 +1003,7 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1006,163 +1019,163 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E21" t="s">
+      <c r="C22" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="13"/>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
         <v>67</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C28" s="6">
         <v>0.5</v>
@@ -1174,140 +1187,140 @@
         <v>0.15</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>90</v>
+        <v>49</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data_prep/scenario_design/Scenario_InputTables.xlsx
+++ b/docs/data_prep/scenario_design/Scenario_InputTables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F304803-0779-4039-9B98-B67985DAE7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-135" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="28680" yWindow="1560" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="97">
   <si>
     <t>Table Name</t>
   </si>
@@ -239,9 +240,6 @@
     <t>not mandatory</t>
   </si>
   <si>
-    <t>fix typo in table name</t>
-  </si>
-  <si>
     <t>not applicable</t>
   </si>
   <si>
@@ -272,9 +270,6 @@
     <t>check FLEX-Summary file from Songmin for plausible rates</t>
   </si>
   <si>
-    <t>same 1</t>
-  </si>
-  <si>
     <t>medium efficiency increase</t>
   </si>
   <si>
@@ -302,9 +297,6 @@
     <t>it should be dependent on action type (i.e. conventional and serial) --&gt; if we want to push for more serial renovation and the costs for serial renovation are higher, this might be the only lever to increase serial renovation + the master thesis student said that there are 15% additional subsidies for serial renovation anyway</t>
   </si>
   <si>
-    <t>can we make sure serial renovation is not available since 1900 somehow? --&gt; yes, in code, historic renovation can happen only by conventional. only for future, serial renovation is an option. additionally, we can also make the availability table 0 for action_type=3 until 2024.</t>
-  </si>
-  <si>
     <t>not fully effective for now as we don't have complicated combinations of fossil and renewable heating technologies. for now, we only have solar thermal and electric heater that decides the RE share and they are usually not very large to make the total share reach above 50%</t>
   </si>
   <si>
@@ -315,12 +307,27 @@
   </si>
   <si>
     <t>no fossil boilers allowed after 2045</t>
+  </si>
+  <si>
+    <t>make scenario-dependent</t>
+  </si>
+  <si>
+    <t>fixed typo in table name</t>
+  </si>
+  <si>
+    <t>additionally, we can also make the availability table 0 for action_type=3 until 2024.</t>
+  </si>
+  <si>
+    <t>make sure serial renovation is not available since 1900? --&gt; yes, in code, historic renovation can happen only by conventional. only for future, serial renovation is an option.</t>
+  </si>
+  <si>
+    <t>only for heat pumps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,11 +413,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,8 +440,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,11 +777,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,20 +793,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
@@ -801,10 +816,10 @@
       <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -813,21 +828,21 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -843,21 +858,21 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -873,7 +888,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -889,7 +904,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -905,7 +920,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
@@ -921,7 +936,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
@@ -937,41 +952,41 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>91</v>
+      <c r="F14" s="19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
@@ -987,7 +1002,7 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1003,7 +1018,7 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1019,23 +1034,23 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1048,12 +1063,12 @@
       <c r="E20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>89</v>
+      <c r="F20" s="21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1069,81 +1084,84 @@
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>60</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
         <v>61</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="16"/>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>64</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>65</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>69</v>
+      <c r="F25" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="3" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
         <v>67</v>
@@ -1151,95 +1169,102 @@
       <c r="D26" t="s">
         <v>67</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="20" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>37</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>38</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="3" t="s">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C29" s="6">
         <v>0.5</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <v>0.3</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <v>0.15</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F29" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
         <v>81</v>
-      </c>
-      <c r="E29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1258,8 +1283,8 @@
       <c r="F32" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>87</v>
+      <c r="G32" s="22" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1278,7 +1303,7 @@
       <c r="F33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="10"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
@@ -1289,7 +1314,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="4" t="s">
         <v>45</v>
       </c>
@@ -1298,7 +1323,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="4" t="s">
         <v>46</v>
       </c>
@@ -1307,7 +1332,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="4" t="s">
         <v>51</v>
       </c>
@@ -1319,20 +1344,21 @@
       <c r="B38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>88</v>
+      <c r="F38" s="19" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A21"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A30:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
